--- a/data/1.2/aunt(2, 2).xlsx
+++ b/data/1.2/aunt(2, 2).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>serviceScore</t>
   </si>
@@ -55,115 +55,106 @@
     <t>id</t>
   </si>
   <si>
-    <t>[30, 9, 26, 49]</t>
-  </si>
-  <si>
-    <t>[39, 5, 41]</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>[32, 31]</t>
-  </si>
-  <si>
-    <t>[13, 27, 21]</t>
-  </si>
-  <si>
-    <t>[17, 10]</t>
-  </si>
-  <si>
-    <t>[24, 16, 40]</t>
-  </si>
-  <si>
-    <t>[48, 0, 43]</t>
-  </si>
-  <si>
-    <t>[8, 18]</t>
+    <t>[30, 36, 16]</t>
+  </si>
+  <si>
+    <t>[39, 5, 0]</t>
+  </si>
+  <si>
+    <t>[2, 20, 44]</t>
+  </si>
+  <si>
+    <t>[32, 45, 38, 43, 41]</t>
+  </si>
+  <si>
+    <t>[13, 46, 14, 31]</t>
+  </si>
+  <si>
+    <t>[17, 22, 18, 10, 21]</t>
+  </si>
+  <si>
+    <t>[24]</t>
+  </si>
+  <si>
+    <t>[48]</t>
+  </si>
+  <si>
+    <t>[8]</t>
   </si>
   <si>
     <t>[47, 25]</t>
   </si>
   <si>
-    <t>[15, 36]</t>
-  </si>
-  <si>
-    <t>[45, 38]</t>
-  </si>
-  <si>
-    <t>[12, 34]</t>
-  </si>
-  <si>
-    <t>[35, 20, 44]</t>
-  </si>
-  <si>
-    <t>[11, 28, 33, 23, 37]</t>
+    <t>[15, 9, 26, 49, 40]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[12, 28, 33, 23, 37]</t>
+  </si>
+  <si>
+    <t>[35]</t>
+  </si>
+  <si>
+    <t>[11, 34, 27]</t>
   </si>
   <si>
     <t>[42]</t>
   </si>
   <si>
-    <t>[6, 3, 19]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[29, 46, 22]</t>
-  </si>
-  <si>
-    <t>[7, 4]</t>
-  </si>
-  <si>
-    <t>[0.0, 2.0, 5.0, 7.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 2.0, 9.0]</t>
+    <t>[6, 4]</t>
+  </si>
+  <si>
+    <t>[1, 3, 19]</t>
+  </si>
+  <si>
+    <t>[29]</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>[0.0, 5.0, 8.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 2.0, 5.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 2.0, 5.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 2.0, 5.0, 7.0, 9.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 2.0, 4.0, 7.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 5.0, 6.0, 7.0, 9.0]</t>
+  </si>
+  <si>
+    <t>[0.0]</t>
   </si>
   <si>
     <t>[1.0]</t>
   </si>
   <si>
-    <t>[1.0, 7.0]</t>
-  </si>
-  <si>
-    <t>[1.0, 7.0, 9.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 7.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 8.0, 10.0]</t>
-  </si>
-  <si>
-    <t>[1.0, 5.0, 7.0]</t>
-  </si>
-  <si>
-    <t>[1.0, 6.0]</t>
-  </si>
-  <si>
     <t>[1.0, 5.0]</t>
   </si>
   <si>
-    <t>[0.0, 5.0]</t>
-  </si>
-  <si>
-    <t>[2.0, 5.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 2.0, 5.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 2.0, 4.0, 7.0, 9.0]</t>
-  </si>
-  <si>
-    <t>[1.0, 6.0, 9.0]</t>
-  </si>
-  <si>
-    <t>[0.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 9.0]</t>
+    <t>[0.0, 2.0, 5.0, 7.0, 10.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 2.0, 4.0, 7.0, 9.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 5.0, 7.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 9.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 6.0, 9.0]</t>
   </si>
 </sst>
 </file>
@@ -582,13 +573,13 @@
         <v>-31576</v>
       </c>
       <c r="E2">
-        <v>-2.349</v>
+        <v>-2.214</v>
       </c>
       <c r="F2">
-        <v>-23.288</v>
+        <v>-13.722</v>
       </c>
       <c r="G2">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -623,13 +614,13 @@
         <v>-7145</v>
       </c>
       <c r="E3">
-        <v>20.906</v>
+        <v>-4.693</v>
       </c>
       <c r="F3">
-        <v>-7.931</v>
+        <v>-12.716</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -664,13 +655,13 @@
         <v>2140</v>
       </c>
       <c r="E4">
-        <v>3.94</v>
+        <v>5.821</v>
       </c>
       <c r="F4">
-        <v>-11.414</v>
+        <v>-5.049</v>
       </c>
       <c r="G4">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -705,13 +696,13 @@
         <v>-3340</v>
       </c>
       <c r="E5">
-        <v>-0.059</v>
+        <v>20.906</v>
       </c>
       <c r="F5">
-        <v>-0.073</v>
+        <v>-7.931</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -746,16 +737,16 @@
         <v>4144</v>
       </c>
       <c r="E6">
-        <v>0.572</v>
+        <v>-0.059</v>
       </c>
       <c r="F6">
-        <v>-4.728</v>
+        <v>-0.073</v>
       </c>
       <c r="G6">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -787,13 +778,13 @@
         <v>-4955</v>
       </c>
       <c r="E7">
-        <v>-0.271</v>
+        <v>0.572</v>
       </c>
       <c r="F7">
-        <v>-0.178</v>
+        <v>-4.728</v>
       </c>
       <c r="G7">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -828,16 +819,16 @@
         <v>-19403</v>
       </c>
       <c r="E8">
-        <v>-3.712</v>
+        <v>-0.416</v>
       </c>
       <c r="F8">
-        <v>-18.471</v>
+        <v>-17.129</v>
       </c>
       <c r="G8">
-        <v>11.5</v>
+        <v>1.5</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="s">
         <v>19</v>
@@ -869,13 +860,13 @@
         <v>-7249</v>
       </c>
       <c r="E9">
-        <v>4.122</v>
+        <v>0.183</v>
       </c>
       <c r="F9">
-        <v>-6.269</v>
+        <v>-17.706</v>
       </c>
       <c r="G9">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -910,13 +901,13 @@
         <v>-2321</v>
       </c>
       <c r="E10">
-        <v>-2.71</v>
+        <v>-5.678</v>
       </c>
       <c r="F10">
-        <v>-5.082</v>
+        <v>-5.303</v>
       </c>
       <c r="G10">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -925,7 +916,7 @@
         <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -957,7 +948,7 @@
         <v>-27.171</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -966,7 +957,7 @@
         <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -992,13 +983,13 @@
         <v>-24895</v>
       </c>
       <c r="E12">
-        <v>-15.478</v>
+        <v>-3.712</v>
       </c>
       <c r="F12">
-        <v>-27.171</v>
+        <v>-18.471</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1007,7 +998,7 @@
         <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1033,13 +1024,13 @@
         <v>11667</v>
       </c>
       <c r="E13">
-        <v>3.111</v>
+        <v>2.161</v>
       </c>
       <c r="F13">
-        <v>-7.287</v>
+        <v>11.667</v>
       </c>
       <c r="G13">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1048,10 +1039,10 @@
         <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1074,13 +1065,13 @@
         <v>12411</v>
       </c>
       <c r="E14">
-        <v>-17.577</v>
+        <v>-16.711</v>
       </c>
       <c r="F14">
-        <v>-12.697</v>
+        <v>-7.162</v>
       </c>
       <c r="G14">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1089,7 +1080,7 @@
         <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1115,13 +1106,13 @@
         <v>-3272</v>
       </c>
       <c r="E15">
-        <v>5.821</v>
+        <v>19.069</v>
       </c>
       <c r="F15">
-        <v>-5.049</v>
+        <v>-5.987</v>
       </c>
       <c r="G15">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1130,7 +1121,7 @@
         <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1156,13 +1147,13 @@
         <v>-4126</v>
       </c>
       <c r="E16">
-        <v>-16.711</v>
+        <v>-4.624</v>
       </c>
       <c r="F16">
-        <v>-7.162</v>
+        <v>-9.316000000000001</v>
       </c>
       <c r="G16">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1171,7 +1162,7 @@
         <v>27</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1203,7 +1194,7 @@
         <v>-12.688</v>
       </c>
       <c r="G17">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1212,7 +1203,7 @@
         <v>28</v>
       </c>
       <c r="J17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1238,13 +1229,13 @@
         <v>-26497</v>
       </c>
       <c r="E18">
-        <v>10.338</v>
+        <v>10.169</v>
       </c>
       <c r="F18">
-        <v>-13.712</v>
+        <v>-14.392</v>
       </c>
       <c r="G18">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1253,7 +1244,7 @@
         <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1279,13 +1270,13 @@
         <v>-19160</v>
       </c>
       <c r="E19">
-        <v>2.176</v>
+        <v>10.338</v>
       </c>
       <c r="F19">
-        <v>-17.371</v>
+        <v>-13.712</v>
       </c>
       <c r="G19">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1294,7 +1285,7 @@
         <v>30</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1320,13 +1311,13 @@
         <v>-8383</v>
       </c>
       <c r="E20">
-        <v>0.572</v>
+        <v>-11.254</v>
       </c>
       <c r="F20">
-        <v>-4.728</v>
+        <v>-1.572</v>
       </c>
       <c r="G20">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1335,7 +1326,7 @@
         <v>31</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1361,13 +1352,13 @@
         <v>-12518</v>
       </c>
       <c r="E21">
-        <v>10.169</v>
+        <v>10.846</v>
       </c>
       <c r="F21">
-        <v>-14.392</v>
+        <v>-16.361</v>
       </c>
       <c r="G21">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1376,7 +1367,7 @@
         <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K21">
         <v>0</v>
